--- a/leetcode/leetcode_search.xlsx
+++ b/leetcode/leetcode_search.xlsx
@@ -3,14 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1DEE20-859A-4551-A1BD-C21BE27B9AC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC2462-EAE0-4FBD-8745-B2EE23436041}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
     <sheet name="4" sheetId="14" r:id="rId2"/>
-    <sheet name="comment" sheetId="15" r:id="rId3"/>
+    <sheet name="329" sheetId="21" r:id="rId3"/>
+    <sheet name="334" sheetId="20" r:id="rId4"/>
+    <sheet name="347" sheetId="19" r:id="rId5"/>
+    <sheet name="350" sheetId="18" r:id="rId6"/>
+    <sheet name="378" sheetId="17" r:id="rId7"/>
+    <sheet name="387" sheetId="16" r:id="rId8"/>
+    <sheet name="comment" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="255">
   <si>
     <r>
       <t xml:space="preserve">class </t>
@@ -2061,13 +2067,4494 @@
   </si>
   <si>
     <t>meet condition</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>firstUniqChar(string s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        unordered_map&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; m;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">auto </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;c : s) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            m[c]++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i &lt; s.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(m[s[i]] == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; count(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;s.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            count[s[i]]++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(count[s[i]] == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i;</t>
+    </r>
+  </si>
+  <si>
+    <t>approach#1</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 13.1 MB, less than 39.06% of C++ online submissions for First Unique Character in a String.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 12.9 MB, less than 68.75% of C++ online submissions for First Unique Character in a String.</t>
+  </si>
+  <si>
+    <r>
+      <t>//Runtime: 60 ms, faster than</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 52.42% o</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>f C++ online submissions for First Unique Character in a String.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//Runtime: 36 ms, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>92.31% o</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>f C++ online submissions for First Unique Character in a String.</t>
+    </r>
+  </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/</t>
+  </si>
+  <si>
+    <t>//Runtime: 14 ms, faster than 58.76% of Java online submissions for Kth Smallest Element in a Sorted Matrix.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 43.1 MB, less than 83.78% of Java online submissions for Kth Smallest Element in a Sorted Matrix.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kthSmallest(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[][] matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>k) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        PriorityQueue&lt;Integer&gt; maxQ = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PriorityQueue&lt;&gt;(k, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Comparator&lt;Integer&gt;(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>compare(Integer a, Integer b) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>b - a;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;matrix.length; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>j=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; j&lt;matrix.length; j++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(maxQ.size() &lt; k) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    maxQ.add(matrix[i][j]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(matrix[i][j] &lt; maxQ.peek()) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                        maxQ.remove();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        maxQ.add(matrix[i][j]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxQ.peek();</t>
+    </r>
+  </si>
+  <si>
+    <t>暴力求解</t>
+  </si>
+  <si>
+    <t>378. Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/</t>
+  </si>
+  <si>
+    <t>暴力求解，使用田忌赛马方式重做</t>
+  </si>
+  <si>
+    <t>350. Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-arrays-ii/</t>
+  </si>
+  <si>
+    <t>//Runtime: 3 ms, faster than 56.93% of Java online submissions for Intersection of Two Arrays II.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 36.3 MB, less than 83.87% of Java online submissions for Intersection of Two Arrays II.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>public int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] intersect(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[] nums1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] nums2) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] num = nums1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] numMax = nums2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(nums2.length &lt; nums1.length) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            num = nums2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            numMax = nums1;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Integer&gt; arr = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Map&lt;Integer, Integer&gt; hash = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashMap&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;num.length; i++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            hash.put(num[i], hash.getOrDefault(num[i], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i: numMax) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(hash.containsKey(i)){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                arr.add(i);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(hash.get(i) == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    hash.remove(i);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">hash.put(i, hash.get(i) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[] res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>new int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[arr.size()];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;arr.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            res[i] = arr.get(i);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>res;</t>
+    </r>
+  </si>
+  <si>
+    <t>效率低 56%</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>//Runtime: 12 ms, faster than 80.15% of Java online submissions for Top K Frequent Elements.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 40.6 MB, less than 61.21% of Java online submissions for Top K Frequent Elements.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>num;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>count;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">num, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>count) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.num = num;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.count = count;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MyCmp implements Comparator&lt;Node&gt;{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>compare(Node a){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>List&lt;Integer&gt; topKFrequent(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[] nums, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>k) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       List&lt;Integer&gt; res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;Integer&gt;(k);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       Map&lt;Integer, Integer&gt; map = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashMap&lt;Integer, Integer&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>num: nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            map.put(num, map.getOrDefault(num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">       }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       PriorityQueue&lt;Node&gt; smallQ = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PriorityQueue&lt;Node&gt;(k);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">count = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Map.Entry&lt;Integer, Integer&gt; entry: map.entrySet()) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          count = entry.getValue();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(smallQ.size()&lt;k) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">             smallQ.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node(entry.getKey(), count));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(count &gt; smallQ.peek().count) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">             smallQ.remove();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(smallQ.size()&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">          res.add(smallQ.peek().num);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          smallQ.remove();</t>
+  </si>
+  <si>
+    <t>需练习比较函数写法</t>
+  </si>
+  <si>
+    <t>334. Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                small = n;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                big = n;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>increasingTriplet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(nums.length &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        List&lt;Integer&gt; memo = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        memo.add(nums[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cur;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;nums.length; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(memo.size() &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(nums[i] &gt; memo.get(memo.size() - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                memo.add(nums[i]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>j=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; j&lt;memo.size(); j++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                cur = memo.get(j);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(nums[i] &lt;= cur) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    memo.set(j, nums[i]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">memo.size() &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>//Runtime: 4 ms, faster than 11.81% of Java online submissions for Increasing Triplet Subsequence.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 38.7 MB, less than 95.35% of Java online submissions for Increasing Triplet Subsequence.</t>
+  </si>
+  <si>
+    <t>//Runtime: 8 ms, faster than 59.20% of C++ online submissions for Increasing Triplet Subsequence.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 9.1 MB, less than 52.94% of C++ online submissions for Increasing Triplet Subsequence.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>increasingTriplet(vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&amp; nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>small = INT_MAX, big = INT_MAX;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n: nums) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n &lt;= small)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n &lt;= big)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>329. Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>//Runtime: 26 ms, faster than 15.27% of Java online submissions for Longest Increasing Path in a Matrix.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 37.3 MB, less than 100.00% of Java online submissions for Longest Increasing Path in a Matrix.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Node </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Comparable&lt;Node&gt;{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>x;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>y;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>val;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">y, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>val) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.x = x;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.y = y;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.val = val;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>compareTo(Node that) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>that.val - val;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>longestIncreasingPath(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[][] matrix) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] dx = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[] dy = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">newx = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">newy = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n = matrix.length;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(n == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>m = matrix[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>].length;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(m == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[][] memo = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>new int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[n][m];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">maxVal = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">curMaxVal = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        PriorityQueue&lt;Node&gt; maxQ = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PriorityQueue&lt;&gt;(m*n);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        Node cur;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;n; i++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>j=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; j&lt;m; j++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                maxQ.add(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Node(i, j, matrix[i][j]));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(maxQ.size() &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            cur = maxQ.poll();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            curMaxVal = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i++){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                newx = cur.x + dx[i];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                newy = cur.y + dy[i];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(newx &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp; newx &lt; n &amp;&amp; newy &gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp; newy &lt; m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        &amp;&amp; matrix[cur.x][cur.y] &lt; matrix[newx][newy] &amp;&amp; memo[newx][newy] != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    curMaxVal = Math.max(curMaxVal, memo[newx][newy]+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            memo[cur.x][cur.y] = curMaxVal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            maxVal = Math.max(maxVal, curMaxVal);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxVal;</t>
+    </r>
+  </si>
+  <si>
+    <t>priorityQueue排序效率低， dfs并非会导致死循环</t>
+  </si>
+  <si>
+    <t>桶排序优于Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2156,6 +6643,33 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF660E7A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2172,18 +6686,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2191,6 +6693,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2232,7 +6746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2268,53 +6782,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2323,10 +6790,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2609,136 +7131,187 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797B7D2-7098-45CE-A64F-08EFFC1E6FA0}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="16.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="2" max="2" width="16.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="28"/>
+    <col min="5" max="5" width="12.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="30">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="str">
+      <c r="C2" s="31" t="str">
         <f t="shared" ref="C2:C8" ca="1" si="0">INDIRECT(B2&amp;"!A1")</f>
         <v>4. Median of Two Sorted Arrays</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="29"/>
+      <c r="B3" s="43">
+        <v>329</v>
+      </c>
+      <c r="C3" s="31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>329. Longest Increasing Path in a Matrix</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="43">
+        <v>334</v>
+      </c>
+      <c r="C4" s="31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>334. Increasing Triplet Subsequence</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27">
-        <f>B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <f>A3+1</f>
+      <c r="B5" s="34">
+        <v>347</v>
+      </c>
+      <c r="C5" s="31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>347. Top K Frequent Elements</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <f t="shared" ref="A6:A11" si="1">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <f t="shared" ref="A6:A8" si="1">A5+1</f>
+      <c r="B6" s="30">
+        <v>350</v>
+      </c>
+      <c r="C6" s="31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>350. Intersection of Two Arrays II</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="B7" s="30">
+        <v>378</v>
+      </c>
+      <c r="C7" s="31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>378. Kth Smallest Element in a Sorted Matrix</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="30">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="B8" s="30">
+        <v>387</v>
+      </c>
+      <c r="C8" s="31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>387. First Unique Character in a String</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <f t="shared" ref="A9" si="2">A8+1</f>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="26"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2750,7 +7323,7 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +7334,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2777,13 +7350,13 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -2821,22 +7394,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="19" t="s">
         <v>70</v>
       </c>
       <c r="M10" t="s">
@@ -2847,80 +7420,80 @@
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
@@ -3059,8 +7632,8 @@
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -3197,124 +7770,1662 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953A7954-F037-496F-9F3E-B73C5C52C434}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B156FDC-23A6-4389-B2AB-A7A02D744760}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB10245-B375-41FB-8E77-9CACE233E1D4}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="133.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{95695023-273A-4D4A-B769-B108EDEABBB9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FD9346-7562-4063-9DF8-1E7574C0C912}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6029D731-6CC8-4857-800E-55D8903325AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD57ED5E-A101-4CE7-85B2-A8E1E554166D}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F45780DB-DBFC-48A2-A7D5-4B339DEBFDCE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F01A51-23A0-495B-BBE0-AA019B45B554}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="144.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8208E195-1EBE-49FA-A7C2-840523C41015}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BE7B80-192D-4812-B86C-997EE85BA2A4}">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{25D1AAF6-20F6-4F19-A35A-ABBAA6934918}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F676B84-3684-4249-B09B-E29E973A8028}">
   <dimension ref="E11:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="39"/>
-      <c r="F12" s="37" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="39"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
